--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_13_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>280976.8596878118</v>
+        <v>276858.1632415771</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33831641.04190069</v>
+        <v>33831641.0419007</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6646565.31866321</v>
+        <v>6646565.318663212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5036718.768858979</v>
+        <v>5036718.768858978</v>
       </c>
     </row>
     <row r="11">
@@ -737,73 +737,73 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="V3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>36.39025468426208</v>
-      </c>
-      <c r="T3" t="n">
+      <c r="W3" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>15.18661160258025</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D6" t="n">
-        <v>36.39025468426205</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E6" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15.40247879949449</v>
       </c>
       <c r="E7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.40247879949446</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>20.98777588476758</v>
       </c>
       <c r="S7" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>82.52210794778523</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>77.39442474913564</v>
+        <v>81.59768721247866</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>82.52210794778523</v>
       </c>
     </row>
     <row r="9">
@@ -1214,73 +1214,73 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>82.52210794778523</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>82.52210794778523</v>
       </c>
       <c r="E9" t="n">
+        <v>72.68547268040922</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>82.52210794778523</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12.47504657251108</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>60.21042610789812</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>82.52210794778523</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>82.52210794778523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>56.77960183202521</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
         <v>82.52210794778523</v>
-      </c>
-      <c r="C10" t="n">
-        <v>82.52210794778523</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.77960183202521</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>82.52210794778523</v>
       </c>
       <c r="Y10" t="n">
         <v>82.52210794778523</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>48.50583343253406</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>300.5514268793906</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>87.92455141075537</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>146.1924382374063</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>161.3441046915875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>71.9472973725139</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>124.4727734435725</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>34.64620011913342</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.9043102021006</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>392.4479542521296</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>94.69787008689553</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>81.30766987964063</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>98.35619202466383</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>156.7012890994286</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>66.7296943307867</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>257.1045550821574</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2323,13 +2323,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>169.0012459373933</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>126.1536952093195</v>
       </c>
     </row>
     <row r="24">
@@ -2478,22 +2478,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>63.62546569681869</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.9460495062423</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>156.7012890994286</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
     </row>
     <row r="27">
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>82.17043591154903</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>18.95563679170333</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>389.4658331456952</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>82.07734036665143</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2952,25 +2952,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>30.54231102287983</v>
       </c>
       <c r="F31" t="n">
-        <v>60.07073011995501</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>329.1642605864039</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -3082,16 +3082,16 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>184.1838414910183</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>76.09807933146864</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>404.3817318844245</v>
       </c>
       <c r="C35" t="n">
-        <v>197.8430749824662</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>134.297696802181</v>
+        <v>14.73944708527126</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>65.45709821928079</v>
       </c>
       <c r="W38" t="n">
-        <v>338.6830497639208</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>197.0705209611669</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>136.0829573912428</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>361.464905015728</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>134.6259300980221</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>266.0591784151871</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,16 +3985,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>106.613609008673</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>132.3359022703093</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.55349484583913</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>121.4847248110021</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4155,7 +4155,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C2" t="n">
-        <v>88.73594738064261</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D2" t="n">
         <v>56.86656659549119</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419041</v>
+        <v>27.13222579419042</v>
       </c>
       <c r="F2" t="n">
-        <v>3.305200243802204</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G2" t="n">
         <v>3.305200243802188</v>
@@ -4330,22 +4330,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="K2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="L2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="M2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="N2" t="n">
-        <v>44.20705326085427</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="O2" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P2" t="n">
         <v>83.45630615600527</v>
@@ -4369,7 +4369,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W2" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X2" t="n">
         <v>149.3429022612615</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C3" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D3" t="n">
         <v>3.305200243802188</v>
@@ -4406,28 +4406,28 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I3" t="n">
-        <v>3.305200243802188</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>3.305200243802188</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
-        <v>44.20705326085427</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="M3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="O3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="P3" t="n">
         <v>83.45630615600527</v>
-      </c>
-      <c r="N3" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="O3" t="n">
-        <v>83.45630615600527</v>
-      </c>
-      <c r="P3" t="n">
-        <v>124.3581591730573</v>
       </c>
       <c r="Q3" t="n">
         <v>124.3581591730573</v>
@@ -4436,25 +4436,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S3" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U3" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V3" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W3" t="n">
-        <v>86.76985286506957</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y3" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J4" t="n">
-        <v>3.305200243802188</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L4" t="n">
-        <v>3.305200243802188</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M4" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N4" t="n">
-        <v>42.55445313895319</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O4" t="n">
         <v>83.45630615600527</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T4" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U4" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V4" t="n">
-        <v>143.8421908954813</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X4" t="n">
-        <v>102.1098645848476</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.37753827421391</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4546,7 +4546,7 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
         <v>56.86656659549116</v>
@@ -4555,55 +4555,55 @@
         <v>27.13222579419039</v>
       </c>
       <c r="F5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J5" t="n">
-        <v>4.204507031735114</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>5.552334785610995</v>
+        <v>74.72406757570491</v>
       </c>
       <c r="L5" t="n">
-        <v>39.22094264659101</v>
+        <v>76.39616708747063</v>
       </c>
       <c r="M5" t="n">
-        <v>80.12279566364307</v>
+        <v>78.25669997339386</v>
       </c>
       <c r="N5" t="n">
-        <v>121.0246486806951</v>
+        <v>80.14733822653858</v>
       </c>
       <c r="O5" t="n">
-        <v>161.9265016977472</v>
+        <v>81.9326143167942</v>
       </c>
       <c r="P5" t="n">
-        <v>163.4501935369583</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
-        <v>164.5944226525021</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V5" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
         <v>164.4449616415467</v>
@@ -4612,7 +4612,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C6" t="n">
-        <v>123.5276858794757</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D6" t="n">
-        <v>86.76985286506954</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443586</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I6" t="n">
         <v>29.56406511086083</v>
       </c>
       <c r="J6" t="n">
-        <v>70.46591812791289</v>
+        <v>30.09968607288541</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3677711449649</v>
+        <v>31.01514760943707</v>
       </c>
       <c r="L6" t="n">
-        <v>152.269624162017</v>
+        <v>32.24609862030133</v>
       </c>
       <c r="M6" t="n">
-        <v>153.7060859314873</v>
+        <v>33.68256038977165</v>
       </c>
       <c r="N6" t="n">
-        <v>155.1805665696702</v>
+        <v>35.15704102795446</v>
       </c>
       <c r="O6" t="n">
-        <v>156.5294282904328</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P6" t="n">
-        <v>157.6120087390947</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q6" t="n">
-        <v>164.908020623403</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R6" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="7">
@@ -4704,73 +4704,73 @@
         <v>102.3279122584983</v>
       </c>
       <c r="C7" t="n">
-        <v>102.3279122584983</v>
+        <v>60.59558594786466</v>
       </c>
       <c r="D7" t="n">
-        <v>102.3279122584983</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E7" t="n">
-        <v>60.59558594786461</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F7" t="n">
-        <v>60.59558594786461</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G7" t="n">
-        <v>18.86325963723094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I7" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>3.641231622390567</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>4.19343440217191</v>
+        <v>80.70246484406594</v>
       </c>
       <c r="L7" t="n">
-        <v>45.09528741922397</v>
+        <v>81.40909428542307</v>
       </c>
       <c r="M7" t="n">
-        <v>82.48347003810406</v>
+        <v>82.15413595457564</v>
       </c>
       <c r="N7" t="n">
-        <v>123.3853230551561</v>
+        <v>82.88146219808576</v>
       </c>
       <c r="O7" t="n">
-        <v>164.2871760722082</v>
+        <v>123.7833152151378</v>
       </c>
       <c r="P7" t="n">
-        <v>164.8620200301277</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q7" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
         <v>144.060238569132</v>
       </c>
       <c r="S7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
       <c r="T7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
       <c r="U7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
       <c r="V7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
       <c r="W7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
       <c r="X7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.3279122584983</v>
+        <v>144.060238569132</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.6664357578468</v>
+        <v>208.5564908240669</v>
       </c>
       <c r="C8" t="n">
-        <v>253.5643669816742</v>
+        <v>174.4544220478942</v>
       </c>
       <c r="D8" t="n">
-        <v>221.6949861965228</v>
+        <v>142.5850412627428</v>
       </c>
       <c r="E8" t="n">
-        <v>191.960645395222</v>
+        <v>112.850700461442</v>
       </c>
       <c r="F8" t="n">
-        <v>168.1336198448338</v>
+        <v>89.0236749110538</v>
       </c>
       <c r="G8" t="n">
-        <v>84.77795525111135</v>
+        <v>89.0236749110538</v>
       </c>
       <c r="H8" t="n">
         <v>6.601768635822818</v>
       </c>
       <c r="I8" t="n">
-        <v>16.21848748363053</v>
+        <v>16.21848748363059</v>
       </c>
       <c r="J8" t="n">
-        <v>38.28910589361439</v>
+        <v>38.28910589361448</v>
       </c>
       <c r="K8" t="n">
-        <v>71.36724167256824</v>
+        <v>71.36724167256833</v>
       </c>
       <c r="L8" t="n">
         <v>112.4035940752078</v>
       </c>
       <c r="M8" t="n">
-        <v>158.0644429817552</v>
+        <v>158.0644429817553</v>
       </c>
       <c r="N8" t="n">
         <v>204.4641321605584</v>
@@ -4849,7 +4849,7 @@
         <v>314.171321862293</v>
       </c>
       <c r="Y8" t="n">
-        <v>309.9256022023505</v>
+        <v>230.8156572685706</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.5584903734959</v>
+        <v>246.7327671974185</v>
       </c>
       <c r="C9" t="n">
-        <v>102.5584903734959</v>
+        <v>163.377102603696</v>
       </c>
       <c r="D9" t="n">
-        <v>102.5584903734959</v>
+        <v>80.02143800997355</v>
       </c>
       <c r="E9" t="n">
-        <v>19.20282577977341</v>
+        <v>6.601768635822818</v>
       </c>
       <c r="F9" t="n">
-        <v>19.20282577977341</v>
+        <v>6.601768635822818</v>
       </c>
       <c r="G9" t="n">
         <v>6.601768635822818</v>
@@ -4880,55 +4880,55 @@
         <v>6.601768635822818</v>
       </c>
       <c r="I9" t="n">
-        <v>37.45580002663147</v>
+        <v>11.39212686617388</v>
       </c>
       <c r="J9" t="n">
-        <v>50.60090915274512</v>
+        <v>46.84256195208864</v>
       </c>
       <c r="K9" t="n">
-        <v>90.88090488858728</v>
+        <v>69.30964717079372</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5777917568946</v>
+        <v>99.5194158578675</v>
       </c>
       <c r="M9" t="n">
-        <v>207.831166911975</v>
+        <v>134.7727910129478</v>
       </c>
       <c r="N9" t="n">
-        <v>244.0175940077186</v>
+        <v>170.9592181086915</v>
       </c>
       <c r="O9" t="n">
-        <v>277.1211052079548</v>
+        <v>204.0627293089276</v>
       </c>
       <c r="P9" t="n">
-        <v>303.6895914032445</v>
+        <v>230.6312155042174</v>
       </c>
       <c r="Q9" t="n">
-        <v>321.4499208218608</v>
+        <v>248.3915449228336</v>
       </c>
       <c r="R9" t="n">
         <v>330.0884317911409</v>
       </c>
       <c r="S9" t="n">
-        <v>269.2698195609408</v>
+        <v>330.0884317911409</v>
       </c>
       <c r="T9" t="n">
-        <v>269.2698195609408</v>
+        <v>330.0884317911409</v>
       </c>
       <c r="U9" t="n">
-        <v>269.2698195609408</v>
+        <v>330.0884317911409</v>
       </c>
       <c r="V9" t="n">
-        <v>269.2698195609408</v>
+        <v>246.7327671974185</v>
       </c>
       <c r="W9" t="n">
-        <v>185.9141549672183</v>
+        <v>246.7327671974185</v>
       </c>
       <c r="X9" t="n">
-        <v>185.9141549672183</v>
+        <v>246.7327671974185</v>
       </c>
       <c r="Y9" t="n">
-        <v>102.5584903734959</v>
+        <v>246.7327671974185</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.3105663932071</v>
+        <v>89.95743322954529</v>
       </c>
       <c r="C10" t="n">
-        <v>63.95490179948466</v>
+        <v>89.95743322954529</v>
       </c>
       <c r="D10" t="n">
-        <v>6.601768635822818</v>
+        <v>89.95743322954529</v>
       </c>
       <c r="E10" t="n">
-        <v>6.601768635822818</v>
+        <v>89.95743322954529</v>
       </c>
       <c r="F10" t="n">
-        <v>6.601768635822818</v>
+        <v>89.95743322954529</v>
       </c>
       <c r="G10" t="n">
         <v>6.601768635822818</v>
@@ -4962,25 +4962,25 @@
         <v>6.601768635822818</v>
       </c>
       <c r="J10" t="n">
-        <v>14.84858766367843</v>
+        <v>88.2986555041302</v>
       </c>
       <c r="K10" t="n">
-        <v>28.40064464914771</v>
+        <v>101.8507124895995</v>
       </c>
       <c r="L10" t="n">
-        <v>45.74261178063166</v>
+        <v>183.5475993579069</v>
       </c>
       <c r="M10" t="n">
-        <v>64.02728459756804</v>
+        <v>201.8322721748433</v>
       </c>
       <c r="N10" t="n">
-        <v>84.99777118621883</v>
+        <v>224.5163834965549</v>
       </c>
       <c r="O10" t="n">
-        <v>166.6946580545262</v>
+        <v>306.2132703648623</v>
       </c>
       <c r="P10" t="n">
-        <v>248.3915449228336</v>
+        <v>320.3209828949627</v>
       </c>
       <c r="Q10" t="n">
         <v>330.0884317911409</v>
@@ -5004,10 +5004,10 @@
         <v>314.021895580652</v>
       </c>
       <c r="X10" t="n">
-        <v>314.021895580652</v>
+        <v>230.6662309869296</v>
       </c>
       <c r="Y10" t="n">
-        <v>230.6662309869296</v>
+        <v>147.3105663932071</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>765.4265856715612</v>
+        <v>1188.845320663326</v>
       </c>
       <c r="C11" t="n">
-        <v>765.4265856715612</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D11" t="n">
-        <v>765.4265856715612</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E11" t="n">
-        <v>765.4265856715612</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5062,31 +5062,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381564</v>
+        <v>2016.273907784362</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792597</v>
+        <v>2016.273907784362</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371908</v>
+        <v>1597.131444363672</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715612</v>
+        <v>1188.845320663326</v>
       </c>
     </row>
     <row r="12">
@@ -5102,19 +5102,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043086</v>
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,52 +5175,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.655226289377</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C13" t="n">
-        <v>382.8425480966948</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D13" t="n">
-        <v>216.9645552982175</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895475</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092382</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827553</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789087</v>
+        <v>1842.060047552668</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.320157362631</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
@@ -5229,22 +5229,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2068.231909419238</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X13" t="n">
-        <v>890.8935156942559</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083642</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>553.6553341406736</v>
+        <v>918.0444189444366</v>
       </c>
       <c r="C14" t="n">
-        <v>553.6553341406736</v>
+        <v>479.90194612786</v>
       </c>
       <c r="D14" t="n">
-        <v>553.6553341406736</v>
+        <v>479.90194612786</v>
       </c>
       <c r="E14" t="n">
-        <v>119.8805892989688</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F14" t="n">
-        <v>119.8805892989688</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G14" t="n">
-        <v>119.8805892989688</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.55632591685</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.55632591685</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1785.939375850676</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W14" t="n">
-        <v>1381.08392126171</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X14" t="n">
-        <v>961.9414578410202</v>
+        <v>1326.330542644783</v>
       </c>
       <c r="Y14" t="n">
-        <v>553.6553341406736</v>
+        <v>918.0444189444366</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235863</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5384,7 +5384,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S15" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T15" t="n">
         <v>1505.938530508979</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>750.0418582406339</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C16" t="n">
-        <v>577.4801467238589</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D16" t="n">
-        <v>577.4801467238589</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E16" t="n">
-        <v>451.7500725384321</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="F16" t="n">
-        <v>275.0430185001883</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>481.9462364092382</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.320157362631</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725809</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645513</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y16" t="n">
-        <v>941.8604769596211</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.20655154895475</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895475</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5536,31 +5536,31 @@
         <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438364</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.86868437219</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783224</v>
+        <v>1301.761491115722</v>
       </c>
       <c r="X17" t="n">
-        <v>702.8707663625343</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="Y17" t="n">
-        <v>294.5846426621877</v>
+        <v>882.6190276950331</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,22 +5585,22 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235851</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
         <v>803.3877032987879</v>
@@ -5609,7 +5609,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>1022.068262654341</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>849.5065511375664</v>
       </c>
       <c r="D19" t="n">
-        <v>299.093514772602</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E19" t="n">
-        <v>129.3355110233392</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895475</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895475</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>997.5438780199988</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1567.301592981533</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>1685.067474329295</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1441.30655205922</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>1213.886881373329</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1681.790385646738</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>1243.647912830161</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1243.647912830161</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228015</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2202.043447044273</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>2202.043447044273</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>2202.043447044273</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>861.4735194517291</v>
+        <v>927.5506608361497</v>
       </c>
       <c r="C22" t="n">
-        <v>688.911807934954</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D22" t="n">
-        <v>688.911807934954</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E22" t="n">
-        <v>519.1538041856913</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F22" t="n">
-        <v>342.4467501474476</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G22" t="n">
-        <v>177.705569759966</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>413.3628026016838</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M22" t="n">
-        <v>997.5438780199985</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N22" t="n">
-        <v>1567.301592981533</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O22" t="n">
-        <v>2104.736723555076</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1713.95224406532</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1426.99673593575</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1154.970331522042</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.711808856608</v>
+        <v>1154.970331522042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1053.292138170716</v>
+        <v>927.5506608361497</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1355.033554032792</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C23" t="n">
-        <v>916.8910812162151</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D23" t="n">
-        <v>480.9812963906596</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895473</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>2189.619248218046</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>2189.619248218046</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y23" t="n">
-        <v>1781.3331245177</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>471.6552262893761</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C25" t="n">
-        <v>407.3870791208724</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D25" t="n">
-        <v>407.3870791208724</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E25" t="n">
-        <v>407.3870791208724</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
         <v>106.1122152511379</v>
@@ -6156,16 +6156,16 @@
         <v>744.992999204955</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O25" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W25" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X25" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W26" t="n">
-        <v>2202.043447044273</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
         <v>341.0245550495863</v>
@@ -6296,13 +6296,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>471.6552262893761</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="C28" t="n">
-        <v>388.6547859746801</v>
+        <v>699.0748969752678</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6547859746801</v>
+        <v>533.1969041767906</v>
       </c>
       <c r="E28" t="n">
-        <v>388.6547859746801</v>
+        <v>363.4389004275278</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364363</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895473</v>
@@ -6384,22 +6384,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1236.93553127931</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N28" t="n">
-        <v>1364.434443083199</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P28" t="n">
         <v>2105.896438675981</v>
@@ -6429,7 +6429,7 @@
         <v>890.893515694255</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.4738450083632</v>
+        <v>890.893515694255</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2101.256885969251</v>
+        <v>1144.102679307047</v>
       </c>
       <c r="C29" t="n">
-        <v>1663.114413152674</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D29" t="n">
-        <v>1227.204628327118</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E29" t="n">
-        <v>1144.298223916359</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>2101.256885969251</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W29" t="n">
-        <v>2101.256885969251</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X29" t="n">
-        <v>2101.256885969251</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y29" t="n">
-        <v>2101.256885969251</v>
+        <v>1144.102679307047</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683665</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D31" t="n">
-        <v>277.6420604698892</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E31" t="n">
-        <v>107.8840567206265</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
@@ -6630,16 +6630,16 @@
         <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>875.5973915434845</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N31" t="n">
-        <v>1445.355106505019</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O31" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540313</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6657,16 +6657,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X31" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1154.573267142144</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>1519.101784779783</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>1083.191999954228</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>649.417255112523</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G32" t="n">
         <v>316.9281030050443</v>
@@ -6697,16 +6697,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M32" t="n">
         <v>1131.588690455489</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1922.045671797284</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>1559.42872173111</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W32" t="n">
-        <v>1154.573267142144</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X32" t="n">
-        <v>1154.573267142144</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="Y32" t="n">
-        <v>1154.573267142144</v>
+        <v>1957.24425759636</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>471.6552262893761</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C34" t="n">
-        <v>299.0935147726011</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D34" t="n">
-        <v>133.2155219741237</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895473</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
         <v>47.20655154895473</v>
@@ -6858,22 +6858,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>481.9462364092375</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827552</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789086</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540313</v>
@@ -6888,22 +6888,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>1973.653814855378</v>
+        <v>2139.034292152508</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1860.64766020125</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774551</v>
+        <v>1573.692152071681</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1301.665747657972</v>
       </c>
       <c r="X34" t="n">
-        <v>890.893515694255</v>
+        <v>1056.273992991385</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.4738450083632</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>916.2722842068462</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V35" t="n">
-        <v>2148.556325916849</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W35" t="n">
-        <v>1743.700871327882</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X35" t="n">
-        <v>1324.558407907193</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y35" t="n">
-        <v>916.2722842068462</v>
+        <v>1293.318111528907</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>992.2890823372263</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C37" t="n">
-        <v>856.6348431431041</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D37" t="n">
-        <v>690.7568503446269</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E37" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M37" t="n">
-        <v>818.7256495113488</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N37" t="n">
-        <v>1120.185357954412</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P37" t="n">
         <v>2105.896438675981</v>
@@ -7125,22 +7125,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>2215.901038951971</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1928.945530822401</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1656.919126408693</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1411.527371742105</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>1184.107701056214</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1144.298223916359</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>1144.298223916359</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1144.298223916359</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7210,16 +7210,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586986</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W38" t="n">
-        <v>1144.298223916359</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.298223916359</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1144.298223916359</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.5496021349386</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5496021349386</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D40" t="n">
         <v>393.6716093364613</v>
@@ -7320,37 +7320,37 @@
         <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092379</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1496.206050620114</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W40" t="n">
-        <v>1224.179646206405</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X40" t="n">
-        <v>978.7878915398176</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.3682208539258</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="X41" t="n">
-        <v>716.4307943255671</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="Y41" t="n">
-        <v>716.4307943255671</v>
+        <v>2182.403674944107</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,10 +7496,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
         <v>192.6919004158277</v>
@@ -7575,19 +7575,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951971</v>
+        <v>2079.915250974172</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.514407000714</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.767762136888</v>
+        <v>1801.528619022914</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1529.502214609206</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1698.173566117874</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C44" t="n">
-        <v>1260.031093301297</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D44" t="n">
-        <v>824.1213084757419</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7681,19 +7681,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>2186.188579106666</v>
       </c>
       <c r="V44" t="n">
-        <v>1698.173566117874</v>
+        <v>2186.188579106666</v>
       </c>
       <c r="W44" t="n">
-        <v>1698.173566117874</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.173566117874</v>
+        <v>1781.3331245177</v>
       </c>
       <c r="Y44" t="n">
-        <v>1698.173566117874</v>
+        <v>1781.3331245177</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.291841223631</v>
+        <v>986.0304051048383</v>
       </c>
       <c r="C46" t="n">
-        <v>919.7301297068562</v>
+        <v>813.4686935880633</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7821,10 +7821,10 @@
         <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,7 +7833,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
         <v>1973.653814855378</v>
@@ -7842,16 +7842,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X46" t="n">
-        <v>1136.285270360843</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y46" t="n">
-        <v>1136.285270360843</v>
+        <v>1177.849023823826</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -8136,22 +8136,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>40.40661235264561</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>29.46382480906541</v>
       </c>
       <c r="L5" t="n">
-        <v>32.31970540324677</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>39.43567690013013</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.40526743829025</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>39.51169386545095</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>40.15921606212949</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.64269038327762</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>40.77397177275502</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>40.39029442474789</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>40.07161818806848</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>6.109646858824355</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40.22148744281834</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.638722751451326</v>
+        <v>40.58401682492982</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>40.95945601045028</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>40.97557741258959</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>36.30627151861651</v>
       </c>
       <c r="L7" t="n">
-        <v>40.60123593504539</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>37.01327368659346</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>40.58033007428479</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>40.63641364647137</v>
+        <v>40.63641364647138</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>40.91299076471756</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>22.53063228262738</v>
       </c>
       <c r="K9" t="n">
-        <v>17.99283890619907</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>52.00719008205414</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>73.79633929194665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>74.19198771762805</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>65.0049694311348</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15210345762415</v>
+        <v>4.883037531422985</v>
       </c>
       <c r="O10" t="n">
         <v>65.86829422289338</v>
       </c>
       <c r="P10" t="n">
-        <v>68.27189327091611</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>72.65599795164559</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.730423204287</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>215.6507358204042</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>156.730423204287</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,22 +9324,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="P19" t="n">
-        <v>323.2928365343471</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>446.4711057025428</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>69.27619576520605</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9804,13 +9804,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>192.4544649334023</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>435.0389037609866</v>
       </c>
       <c r="O28" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10278,16 +10278,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>265.3457328681898</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>69.27619576520576</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10524,7 +10524,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>446.4711057025431</v>
       </c>
       <c r="N37" t="n">
-        <v>175.7179764032062</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042869</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,16 +11223,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>141.4680432173438</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464593</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>375.0829218623502</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,10 +23317,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>58.43935368612108</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>82.91154299085194</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>93.6323136182211</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>268.0928927017003</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -23512,7 +23512,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>195.0770385690147</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>43.58765026819758</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>128.4475684644733</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>177.1322645779581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,7 +23746,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>8.358945790947416</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>69.52134278359699</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>93.63231361822071</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>331.0808053686239</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>99.7786954642726</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>64.29092568369055</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>18.49821054958704</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24268,13 +24268,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>231.8056541056837</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>278.0495672540235</v>
       </c>
     </row>
     <row r="24">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>107.2106287047886</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>9.273163364250252</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>244.1056109436484</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>294.6492154448417</v>
       </c>
     </row>
     <row r="27">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>88.66565849005828</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.984346706158</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>44.29521494271575</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>347.3596570266363</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>137.5181126888903</v>
       </c>
       <c r="F31" t="n">
-        <v>114.8692533779063</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>94.42449470848044</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>72.2961430726829</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>62.46433369811443</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>163.7266725241588</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>17.65484289563415</v>
       </c>
       <c r="C35" t="n">
-        <v>235.9179731059447</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>36.53839759942636</v>
+        <v>156.0966473163361</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>293.5336823462309</v>
       </c>
       <c r="W38" t="n">
-        <v>62.12385027915622</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>87.01543208710689</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>120.3970271724584</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>53.48613377075435</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>105.1988217576053</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>18.02677463308669</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>322.8233883846148</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>124.1440822933919</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>146.3469376859581</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>42.73448805949047</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>373371.494057129</v>
+        <v>373371.4940571288</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>373371.494057129</v>
+        <v>373371.4940571288</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373371.4940571288</v>
+        <v>373371.4940571287</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373371.4940571288</v>
+        <v>373371.4940571287</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>373371.4940571287</v>
+        <v>373371.4940571288</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342449</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.3919342454</v>
@@ -26328,25 +26328,25 @@
         <v>188757.0855609808</v>
       </c>
       <c r="G2" t="n">
-        <v>188757.0855609808</v>
+        <v>188757.0855609807</v>
       </c>
       <c r="H2" t="n">
         <v>188757.0855609807</v>
       </c>
       <c r="I2" t="n">
+        <v>188757.0855609808</v>
+      </c>
+      <c r="J2" t="n">
+        <v>188757.0855609808</v>
+      </c>
+      <c r="K2" t="n">
         <v>188757.0855609807</v>
-      </c>
-      <c r="J2" t="n">
-        <v>188757.0855609807</v>
-      </c>
-      <c r="K2" t="n">
-        <v>188757.0855609808</v>
       </c>
       <c r="L2" t="n">
         <v>188757.0855609808</v>
       </c>
       <c r="M2" t="n">
-        <v>188757.0855609807</v>
+        <v>188757.0855609808</v>
       </c>
       <c r="N2" t="n">
         <v>188757.0855609808</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>2424.325753318908</v>
@@ -26374,7 +26374,7 @@
         <v>66476.8900088337</v>
       </c>
       <c r="E3" t="n">
-        <v>474002.7867708053</v>
+        <v>474002.7867708051</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10809.82265736726</v>
+        <v>10809.82265736723</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10429.14738631117</v>
+        <v>10429.14738631114</v>
       </c>
       <c r="M3" t="n">
         <v>126485.9290135516</v>
@@ -26426,13 +26426,13 @@
         <v>281600.9860937325</v>
       </c>
       <c r="E4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="F4" t="n">
         <v>12054.8494407426</v>
       </c>
       <c r="G4" t="n">
-        <v>12054.84944074262</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="H4" t="n">
         <v>12054.84944074259</v>
@@ -26441,7 +26441,7 @@
         <v>12054.84944074259</v>
       </c>
       <c r="J4" t="n">
-        <v>12054.8494407426</v>
+        <v>12054.84944074259</v>
       </c>
       <c r="K4" t="n">
         <v>12054.84944074259</v>
@@ -26453,13 +26453,13 @@
         <v>12054.84944074259</v>
       </c>
       <c r="N4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
       <c r="O4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
       <c r="P4" t="n">
-        <v>12054.84944074259</v>
+        <v>12054.8494407426</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>36197.5910446622</v>
       </c>
       <c r="D5" t="n">
-        <v>40069.32295737</v>
+        <v>40069.32295736999</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
@@ -26505,13 +26505,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28749.15476732682</v>
+        <v>-28749.15476732688</v>
       </c>
       <c r="C6" t="n">
-        <v>-16836.11072388996</v>
+        <v>-16836.11072388993</v>
       </c>
       <c r="D6" t="n">
         <v>-66458.80712569086</v>
       </c>
       <c r="E6" t="n">
-        <v>-343351.6318602049</v>
+        <v>-343905.5123034266</v>
       </c>
       <c r="F6" t="n">
-        <v>130651.1549106004</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="G6" t="n">
-        <v>130651.1549106004</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="H6" t="n">
-        <v>130651.1549106003</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="I6" t="n">
-        <v>130651.1549106004</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="J6" t="n">
-        <v>119841.3322532331</v>
+        <v>119287.4518100112</v>
       </c>
       <c r="K6" t="n">
-        <v>130651.1549106004</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="L6" t="n">
-        <v>120222.0075242892</v>
+        <v>119668.1270810673</v>
       </c>
       <c r="M6" t="n">
-        <v>4165.225897048716</v>
+        <v>3611.345453826847</v>
       </c>
       <c r="N6" t="n">
-        <v>130651.1549106004</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="O6" t="n">
-        <v>130651.1549106005</v>
+        <v>130097.2744673784</v>
       </c>
       <c r="P6" t="n">
-        <v>130651.1549106004</v>
+        <v>130097.2744673784</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>65.3384767956266</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26792,31 +26792,31 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
         <v>82.52210794778523</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
@@ -26825,13 +26825,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>62.67614379688631</v>
       </c>
       <c r="E3" t="n">
-        <v>401.3634512975947</v>
+        <v>401.3634512975946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.20710490025788</v>
       </c>
       <c r="E4" t="n">
-        <v>507.5597864141491</v>
+        <v>507.559786414149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752728</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.20710490025788</v>
+        <v>41.20710490025777</v>
       </c>
       <c r="M4" t="n">
-        <v>507.5597864141491</v>
+        <v>507.559786414149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.20710490025788</v>
       </c>
       <c r="M4" t="n">
-        <v>507.5597864141491</v>
+        <v>507.559786414149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>52.82438291738493</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>26.43062849183867</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>87.56185418517705</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
-        <v>174.5731815300314</v>
+        <v>133.258178482504</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y3" t="n">
         <v>125.2209214285714</v>
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -27554,10 +27554,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>123.316540963949</v>
+        <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
-        <v>46.45834668554406</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>142.462343412403</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27599,7 +27599,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>227.991137322044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27697,16 +27697,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D6" t="n">
-        <v>57.74913128065023</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E6" t="n">
-        <v>51.86420747878848</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>84.52551230889576</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.71451543789636</v>
+        <v>26.32426075363428</v>
       </c>
       <c r="T6" t="n">
         <v>128.8537753079323</v>
       </c>
       <c r="U6" t="n">
-        <v>133.2578017372684</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>148.8167340709981</v>
       </c>
       <c r="E7" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>122.6155582485449</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0579891494484</v>
+        <v>97.14546490141552</v>
       </c>
       <c r="I7" t="n">
         <v>87.62897272389382</v>
@@ -27824,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>116.2502848796103</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T7" t="n">
         <v>243.400138899798</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>314.599077871784</v>
+        <v>397.1211858195692</v>
       </c>
       <c r="H8" t="n">
-        <v>206.1543873556151</v>
+        <v>201.951124892272</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>321.6811545155579</v>
       </c>
     </row>
     <row r="9">
@@ -27934,19 +27934,19 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>22.8697886039389</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>11.61727801712705</v>
       </c>
       <c r="E9" t="n">
-        <v>10.65710257853058</v>
+        <v>20.49373784590659</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>71.91565289878383</v>
+        <v>84.39069947129491</v>
       </c>
       <c r="H9" t="n">
         <v>39.96098126662918</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>60.21042610789812</v>
       </c>
       <c r="T9" t="n">
         <v>128.3103849669008</v>
@@ -27991,16 +27991,16 @@
         <v>174.5639355191641</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>114.6042348108354</v>
       </c>
       <c r="W9" t="n">
-        <v>100.9474187763527</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>42.69881348078619</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.378324584012</v>
+        <v>133.120830699772</v>
       </c>
       <c r="C10" t="n">
-        <v>88.31398645382208</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>107.4396110384673</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28025,7 +28025,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8175387416844</v>
+        <v>81.29543079389916</v>
       </c>
       <c r="H10" t="n">
         <v>137.4555946926584</v>
@@ -28076,7 +28076,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>160.4157291721364</v>
       </c>
       <c r="Y10" t="n">
         <v>142.6233660312476</v>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,10 +31770,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,16 +31864,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -32025,10 +32025,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,10 +32071,10 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -32083,7 +32083,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -32101,16 +32101,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
         <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
@@ -32177,10 +32177,10 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -32484,7 +32484,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
@@ -32493,19 +32493,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,34 +32548,34 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="P2" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q2" t="n">
         <v>41.31500304752734</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>41.31500304752734</v>
@@ -34856,22 +34856,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>41.31500304752734</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817444</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>1.361442175632203</v>
+        <v>30.82526698469762</v>
       </c>
       <c r="L5" t="n">
-        <v>34.00869480907073</v>
+        <v>1.688989405823961</v>
       </c>
       <c r="M5" t="n">
-        <v>41.31500304752733</v>
+        <v>1.879326147397208</v>
       </c>
       <c r="N5" t="n">
-        <v>41.31500304752734</v>
+        <v>1.909735609237089</v>
       </c>
       <c r="O5" t="n">
-        <v>41.31500304752734</v>
+        <v>1.80330918207639</v>
       </c>
       <c r="P5" t="n">
         <v>1.539082665869756</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.155786985397839</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6723126642497164</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>26.52410592632186</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752733</v>
+        <v>0.5410312747723083</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752734</v>
+        <v>0.9247086227794483</v>
       </c>
       <c r="L6" t="n">
-        <v>41.31500304752734</v>
+        <v>1.243384859458853</v>
       </c>
       <c r="M6" t="n">
-        <v>1.45097148431347</v>
+        <v>1.450971484313456</v>
       </c>
       <c r="N6" t="n">
         <v>1.489374382002836</v>
       </c>
       <c r="O6" t="n">
-        <v>1.362486586628904</v>
+        <v>7.472133445453267</v>
       </c>
       <c r="P6" t="n">
-        <v>1.093515604709012</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.369708974048848</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3555470370770593</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3394256349377582</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5577805856377203</v>
+        <v>36.86405210425423</v>
       </c>
       <c r="L7" t="n">
-        <v>41.31500304752733</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M7" t="n">
-        <v>37.7658410291718</v>
+        <v>0.7525673425783452</v>
       </c>
       <c r="N7" t="n">
+        <v>0.734672973242553</v>
+      </c>
+      <c r="O7" t="n">
+        <v>41.31500304752736</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.5806504625449378</v>
+      </c>
+      <c r="Q7" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O7" t="n">
-        <v>41.31500304752734</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.5806504625449236</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.4020122828097783</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>9.71385742202798</v>
       </c>
       <c r="J8" t="n">
-        <v>22.29355394947865</v>
+        <v>22.29355394947868</v>
       </c>
       <c r="K8" t="n">
         <v>33.41225836257965</v>
       </c>
       <c r="L8" t="n">
-        <v>41.45086101276722</v>
+        <v>41.45086101276721</v>
       </c>
       <c r="M8" t="n">
-        <v>46.12206960257315</v>
+        <v>46.12206960257313</v>
       </c>
       <c r="N8" t="n">
         <v>46.86837290788199</v>
@@ -35193,7 +35193,7 @@
         <v>37.77187793490293</v>
       </c>
       <c r="Q8" t="n">
-        <v>28.36510728065821</v>
+        <v>28.36510728065815</v>
       </c>
       <c r="R8" t="n">
         <v>16.49977122819411</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>31.1656882735441</v>
+        <v>4.838745687223293</v>
       </c>
       <c r="J9" t="n">
-        <v>13.2778880061754</v>
+        <v>35.80852028880279</v>
       </c>
       <c r="K9" t="n">
-        <v>40.68686437963855</v>
+        <v>22.69402547343948</v>
       </c>
       <c r="L9" t="n">
-        <v>82.52210794778523</v>
+        <v>30.51491786573109</v>
       </c>
       <c r="M9" t="n">
         <v>35.6094698536165</v>
@@ -35269,13 +35269,13 @@
         <v>33.43789010124866</v>
       </c>
       <c r="P9" t="n">
-        <v>26.83685474271692</v>
+        <v>26.83685474271689</v>
       </c>
       <c r="Q9" t="n">
         <v>17.93972668547093</v>
       </c>
       <c r="R9" t="n">
-        <v>8.725768655838579</v>
+        <v>82.52210794778523</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.330120230157181</v>
+        <v>82.52210794778523</v>
       </c>
       <c r="K10" t="n">
         <v>13.68894644996898</v>
       </c>
       <c r="L10" t="n">
-        <v>17.51713851665045</v>
+        <v>82.52210794778524</v>
       </c>
       <c r="M10" t="n">
         <v>18.46936648175392</v>
       </c>
       <c r="N10" t="n">
-        <v>21.18230968550584</v>
+        <v>22.91324375930469</v>
       </c>
       <c r="O10" t="n">
         <v>82.52210794778523</v>
       </c>
       <c r="P10" t="n">
-        <v>82.52210794778523</v>
+        <v>14.25021467686912</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.52210794778523</v>
+        <v>9.866109996139642</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646685</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.8524450409516</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N13" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>334.606171525214</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
@@ -35591,7 +35591,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35743,7 +35743,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>281.8524450409516</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619344</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35904,10 +35904,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687948</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36044,25 +36044,25 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512691</v>
       </c>
       <c r="P19" t="n">
-        <v>425.0797619663506</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36217,7 +36217,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>578.39473432732</v>
       </c>
       <c r="N22" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>171.0631211972095</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36378,10 +36378,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36518,19 +36518,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M25" t="n">
-        <v>324.3780935581794</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>563.825683360875</v>
       </c>
       <c r="O28" t="n">
-        <v>296.1475206512696</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
         <v>240.36368292423</v>
@@ -36828,19 +36828,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,13 +36849,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405465</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36992,22 +36992,22 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>384.3011685729996</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
         <v>70.4719911420766</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>194.3982176018703</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>578.3947343273203</v>
       </c>
       <c r="N37" t="n">
-        <v>304.5047560030946</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409514</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37870,7 +37870,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>260.4234789221537</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,25 +38013,25 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
         <v>269.7982739184536</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
@@ -38189,13 +38189,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>296.1475206512691</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
